--- a/milestone1.xlsx
+++ b/milestone1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="310">
   <si>
     <t>Team Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>52-8627</t>
   </si>
   <si>
-    <t>mirna.ali@guc.edu.eg</t>
-  </si>
-  <si>
     <t>T21</t>
   </si>
   <si>
@@ -79,19 +76,10 @@
     <t>52-11219</t>
   </si>
   <si>
-    <t>youssef.Bahyeldin@studen.guc.edu.eg</t>
-  </si>
-  <si>
     <t>mohieeddeen</t>
   </si>
   <si>
     <t>52-6003</t>
-  </si>
-  <si>
-    <t>mohieeddeen.edris@guc.edu.edu.eg</t>
-  </si>
-  <si>
-    <t>youssef.bahyeldin@student.edu.eg</t>
   </si>
   <si>
     <t>Module</t>
@@ -965,13 +953,31 @@
   </si>
   <si>
     <t>t-11</t>
+  </si>
+  <si>
+    <t>ahmed hamed</t>
+  </si>
+  <si>
+    <t>ahmed.elgamel@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>youssef.Bahyeldin@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>mirna.ali@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>mohieeddeen.edris@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>52-12890</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1063,6 +1069,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1164,10 +1178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,8 +1366,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1572,7 +1589,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1639,67 +1656,67 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
+      <c r="C9" s="75" t="s">
+        <v>306</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>308</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>309</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>305</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2697,6 +2714,13 @@
     <mergeCell ref="A2:D4"/>
     <mergeCell ref="A5:D5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2726,22 +2750,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
@@ -2749,22 +2773,22 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10">
         <v>11</v>
@@ -2773,16 +2797,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
@@ -2806,23 +2830,23 @@
     </row>
     <row r="4" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="20">
         <v>2</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
@@ -2846,25 +2870,25 @@
     </row>
     <row r="5" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="17"/>
@@ -2888,7 +2912,7 @@
     </row>
     <row r="6" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
@@ -2897,13 +2921,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="27"/>
@@ -2928,7 +2952,7 @@
     </row>
     <row r="7" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
@@ -2937,16 +2961,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="17"/>
@@ -2970,7 +2994,7 @@
     </row>
     <row r="8" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12">
         <v>0</v>
@@ -2979,16 +3003,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="17"/>
@@ -3012,7 +3036,7 @@
     </row>
     <row r="9" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="10">
         <v>1</v>
@@ -3021,16 +3045,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -3054,7 +3078,7 @@
     </row>
     <row r="10" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="10">
         <v>1</v>
@@ -3063,16 +3087,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
@@ -3096,7 +3120,7 @@
     </row>
     <row r="11" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -3105,16 +3129,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
@@ -3138,7 +3162,7 @@
     </row>
     <row r="12" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -3147,16 +3171,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -3180,7 +3204,7 @@
     </row>
     <row r="13" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10">
         <v>6</v>
@@ -3189,16 +3213,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="29"/>
@@ -3222,7 +3246,7 @@
     </row>
     <row r="14" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -3231,16 +3255,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
@@ -3264,7 +3288,7 @@
     </row>
     <row r="15" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="10">
         <v>55</v>
@@ -3273,16 +3297,16 @@
         <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -3306,7 +3330,7 @@
     </row>
     <row r="16" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" s="10">
         <v>1</v>
@@ -3315,16 +3339,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -3348,7 +3372,7 @@
     </row>
     <row r="17" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
@@ -3357,16 +3381,16 @@
         <v>15</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -3390,7 +3414,7 @@
     </row>
     <row r="18" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10">
         <v>21</v>
@@ -3399,16 +3423,16 @@
         <v>17</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -3432,25 +3456,25 @@
     </row>
     <row r="19" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="10">
         <v>18</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -3474,25 +3498,25 @@
     </row>
     <row r="20" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="10">
         <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -3516,7 +3540,7 @@
     </row>
     <row r="21" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="10">
         <v>53</v>
@@ -3525,16 +3549,16 @@
         <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -3558,7 +3582,7 @@
     </row>
     <row r="22" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="10">
         <v>48</v>
@@ -3567,16 +3591,16 @@
         <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -3600,7 +3624,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="10">
         <v>74</v>
@@ -3609,16 +3633,16 @@
         <v>22</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="G23" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="17"/>
@@ -3642,7 +3666,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="10">
         <v>15</v>
@@ -3651,16 +3675,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -3684,7 +3708,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10">
         <v>42</v>
@@ -3693,16 +3717,16 @@
         <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="17"/>
@@ -3726,7 +3750,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" s="10">
         <v>47</v>
@@ -3735,16 +3759,16 @@
         <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="17"/>
@@ -3768,7 +3792,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="32">
         <v>6</v>
@@ -3777,16 +3801,16 @@
         <v>26</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="17"/>
@@ -3810,7 +3834,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="32">
         <v>26</v>
@@ -3819,16 +3843,16 @@
         <v>27</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="17"/>
@@ -3852,7 +3876,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -3861,16 +3885,16 @@
         <v>28</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="17"/>
@@ -3894,25 +3918,25 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" s="33">
         <v>29</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="17"/>
@@ -3936,25 +3960,25 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31" s="33">
         <v>30</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="17"/>
@@ -3978,7 +4002,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="32">
         <v>4</v>
@@ -3987,16 +4011,16 @@
         <v>31</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="17"/>
@@ -4020,7 +4044,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="32">
         <v>2</v>
@@ -4029,16 +4053,16 @@
         <v>32</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="17"/>
@@ -4062,7 +4086,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="32">
         <v>4</v>
@@ -4071,16 +4095,16 @@
         <v>33</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H34" s="37"/>
       <c r="I34" s="17"/>
@@ -4104,25 +4128,25 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" s="33">
         <v>34</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H35" s="37"/>
       <c r="I35" s="17"/>
@@ -4146,7 +4170,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36" s="32">
         <v>41</v>
@@ -4155,16 +4179,16 @@
         <v>35</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="17"/>
@@ -4188,7 +4212,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B37" s="32">
         <v>1</v>
@@ -4197,16 +4221,16 @@
         <v>36</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="17"/>
@@ -4230,7 +4254,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B38" s="32">
         <v>2</v>
@@ -4239,16 +4263,16 @@
         <v>37</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H38" s="37"/>
       <c r="I38" s="17"/>
@@ -4272,7 +4296,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="32">
         <v>2</v>
@@ -4281,16 +4305,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H39" s="37"/>
       <c r="I39" s="17"/>
@@ -4314,7 +4338,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B40" s="32">
         <v>2</v>
@@ -4323,16 +4347,16 @@
         <v>39</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="17"/>
@@ -4356,7 +4380,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B41" s="32">
         <v>32</v>
@@ -4365,16 +4389,16 @@
         <v>40</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H41" s="37"/>
       <c r="I41" s="17"/>
@@ -4398,7 +4422,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B42" s="32">
         <v>1</v>
@@ -4407,16 +4431,16 @@
         <v>41</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="17"/>
@@ -4440,7 +4464,7 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B43" s="10">
         <v>1</v>
@@ -4449,16 +4473,16 @@
         <v>42</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="17"/>
@@ -4482,25 +4506,25 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C44" s="10">
         <v>43</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="17"/>
@@ -4524,25 +4548,25 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C45" s="38">
         <v>44</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="17"/>
@@ -4566,25 +4590,25 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C46" s="10">
         <v>45</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="17"/>
@@ -4608,25 +4632,25 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" s="10">
         <v>46</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="17"/>
@@ -4650,25 +4674,25 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C48" s="10">
         <v>47</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="17"/>
@@ -4692,7 +4716,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B49" s="10">
         <v>51</v>
@@ -4701,16 +4725,16 @@
         <v>48</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="17"/>
@@ -4734,25 +4758,25 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C50" s="10">
         <v>49</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="17"/>
@@ -4776,25 +4800,25 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C51" s="10">
         <v>50</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="17"/>
@@ -4818,7 +4842,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B52" s="10">
         <v>1</v>
@@ -4827,16 +4851,16 @@
         <v>51</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="17"/>
@@ -4860,25 +4884,25 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="10">
         <v>52</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="17"/>
@@ -4902,7 +4926,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B54" s="10">
         <v>42</v>
@@ -4911,16 +4935,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="29"/>
@@ -4944,7 +4968,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B55" s="10">
         <v>6</v>
@@ -4953,16 +4977,16 @@
         <v>54</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="29"/>
@@ -4986,25 +5010,25 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C56" s="10">
         <v>55</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H56" s="11"/>
       <c r="I56" s="29"/>
@@ -5028,25 +5052,25 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="10">
         <v>56</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H57" s="11"/>
       <c r="I57" s="29"/>
@@ -5070,7 +5094,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B58" s="10">
         <v>48</v>
@@ -5079,16 +5103,16 @@
         <v>57</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="29"/>
@@ -5112,7 +5136,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B59" s="10">
         <v>48</v>
@@ -5121,16 +5145,16 @@
         <v>58</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="42"/>
@@ -5154,25 +5178,25 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C60" s="10">
         <v>59</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="42"/>
@@ -5196,7 +5220,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B61" s="10">
         <v>48</v>
@@ -5205,16 +5229,16 @@
         <v>60</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="17"/>
@@ -5238,25 +5262,25 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C62" s="10">
         <v>61</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="17"/>
@@ -5280,23 +5304,23 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="10">
         <v>62</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="17"/>
@@ -5320,25 +5344,25 @@
     </row>
     <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C64" s="10">
         <v>63</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G64" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="17"/>
@@ -5362,25 +5386,25 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C65" s="10">
         <v>64</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="17"/>
@@ -5404,25 +5428,25 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C66" s="10">
         <v>65</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="17"/>
@@ -5446,7 +5470,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B67" s="10">
         <v>1</v>
@@ -5455,16 +5479,16 @@
         <v>66</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="17"/>
@@ -5488,7 +5512,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B68" s="10">
         <v>1</v>
@@ -5497,16 +5521,16 @@
         <v>67</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="17"/>
@@ -5530,7 +5554,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B69" s="10">
         <v>1</v>
@@ -5539,16 +5563,16 @@
         <v>68</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="17"/>
@@ -5572,7 +5596,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B70" s="10">
         <v>1</v>
@@ -5581,16 +5605,16 @@
         <v>69</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="17"/>
@@ -5614,7 +5638,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B71" s="10">
         <v>1</v>
@@ -5623,16 +5647,16 @@
         <v>70</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="17"/>
@@ -5656,7 +5680,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B72" s="10">
         <v>1</v>
@@ -5665,16 +5689,16 @@
         <v>71</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="17"/>
@@ -5698,25 +5722,25 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C73" s="10">
         <v>72</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="17"/>
@@ -5740,7 +5764,7 @@
     </row>
     <row r="74" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B74" s="10">
         <v>12</v>
@@ -5749,16 +5773,16 @@
         <v>73</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="17"/>
@@ -5782,7 +5806,7 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B75" s="10">
         <v>73</v>
@@ -5791,16 +5815,16 @@
         <v>74</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G75" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="17"/>
@@ -5824,7 +5848,7 @@
     </row>
     <row r="76" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B76" s="10">
         <v>22</v>
@@ -5833,16 +5857,16 @@
         <v>75</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G76" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="17"/>
@@ -5866,23 +5890,23 @@
     </row>
     <row r="77" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="10">
         <v>76</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G77" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="17"/>
@@ -5906,7 +5930,7 @@
     </row>
     <row r="78" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B78" s="10">
         <v>76</v>
@@ -5915,16 +5939,16 @@
         <v>77</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G78" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="17"/>
@@ -5948,25 +5972,25 @@
     </row>
     <row r="79" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C79" s="10">
         <v>78</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G79" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="17"/>
@@ -5990,23 +6014,23 @@
     </row>
     <row r="80" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="10">
         <v>79</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G80" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="17"/>
@@ -6030,25 +6054,25 @@
     </row>
     <row r="81" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C81" s="10">
         <v>80</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G81" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="17"/>
@@ -6072,23 +6096,23 @@
     </row>
     <row r="82" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="10">
         <v>81</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="17"/>
@@ -6112,23 +6136,23 @@
     </row>
     <row r="83" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="10">
         <v>82</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F83" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G83" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="17"/>
@@ -6152,23 +6176,23 @@
     </row>
     <row r="84" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="10">
         <v>83</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G84" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="17"/>
@@ -6192,7 +6216,7 @@
     </row>
     <row r="85" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B85" s="10">
         <v>83</v>
@@ -6201,16 +6225,16 @@
         <v>84</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="17"/>
@@ -6234,25 +6258,25 @@
     </row>
     <row r="86" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C86" s="50">
         <v>85</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G86" s="48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H86" s="51"/>
       <c r="I86" s="17"/>
@@ -6276,7 +6300,7 @@
     </row>
     <row r="87" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B87" s="10">
         <v>6</v>
@@ -6285,16 +6309,16 @@
         <v>86</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G87" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H87" s="11"/>
       <c r="I87" s="17"/>
@@ -6318,23 +6342,23 @@
     </row>
     <row r="88" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="10">
         <v>87</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G88" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="17"/>
@@ -6358,23 +6382,23 @@
     </row>
     <row r="89" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="10">
         <v>88</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G89" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="17"/>
@@ -6398,23 +6422,23 @@
     </row>
     <row r="90" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="10">
         <v>89</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G90" s="47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="17"/>
@@ -6438,7 +6462,7 @@
     </row>
     <row r="91" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="52" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B91" s="10">
         <v>96</v>
@@ -6447,16 +6471,16 @@
         <v>90</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="17"/>
@@ -6480,7 +6504,7 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B92" s="10">
         <v>96</v>
@@ -6489,16 +6513,16 @@
         <v>91</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="17"/>
@@ -6522,7 +6546,7 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B93" s="10">
         <v>96</v>
@@ -6531,16 +6555,16 @@
         <v>92</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="17"/>
@@ -6564,7 +6588,7 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B94" s="10">
         <v>96</v>
@@ -6573,16 +6597,16 @@
         <v>93</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H94" s="11"/>
       <c r="I94" s="17"/>
@@ -6606,7 +6630,7 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B95" s="10">
         <v>105</v>
@@ -6615,16 +6639,16 @@
         <v>94</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H95" s="11"/>
       <c r="I95" s="17"/>
@@ -6648,7 +6672,7 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B96" s="10">
         <v>96</v>
@@ -6657,16 +6681,16 @@
         <v>95</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H96" s="11"/>
       <c r="I96" s="17"/>
@@ -6690,7 +6714,7 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B97" s="10">
         <v>2</v>
@@ -6699,16 +6723,16 @@
         <v>96</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="17"/>
@@ -6732,7 +6756,7 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B98" s="54">
         <v>6</v>
@@ -6741,16 +6765,16 @@
         <v>97</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="17"/>
@@ -6774,23 +6798,23 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="10">
         <v>98</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H99" s="11"/>
       <c r="I99" s="17"/>
@@ -6814,25 +6838,25 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C100" s="10">
         <v>99</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="17"/>
@@ -6856,7 +6880,7 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B101" s="10">
         <v>94</v>
@@ -6865,16 +6889,16 @@
         <v>100</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="17"/>
@@ -6898,25 +6922,25 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C102" s="10">
         <v>101</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="17"/>
@@ -6940,7 +6964,7 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B103" s="10">
         <v>101</v>
@@ -6949,16 +6973,16 @@
         <v>102</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="17"/>
@@ -6982,7 +7006,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B104" s="10">
         <v>96</v>
@@ -6991,16 +7015,16 @@
         <v>103</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H104" s="11"/>
       <c r="I104" s="17"/>
@@ -7024,7 +7048,7 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B105" s="10">
         <v>94</v>
@@ -7033,16 +7057,16 @@
         <v>104</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="17"/>
@@ -7066,7 +7090,7 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B106" s="10">
         <v>90</v>
@@ -7075,16 +7099,16 @@
         <v>105</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H106" s="11"/>
       <c r="I106" s="17"/>
@@ -7108,7 +7132,7 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B107" s="10">
         <v>94</v>
@@ -7117,16 +7141,16 @@
         <v>106</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="17"/>
@@ -7150,25 +7174,25 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C108" s="10">
         <v>107</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="17"/>
@@ -7192,7 +7216,7 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B109" s="10">
         <v>107</v>
@@ -7201,16 +7225,16 @@
         <v>108</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="17"/>
@@ -7234,7 +7258,7 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B110" s="55">
         <v>107108</v>
@@ -7243,16 +7267,16 @@
         <v>109</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H110" s="11"/>
       <c r="I110" s="17"/>
@@ -7276,25 +7300,25 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C111" s="10">
         <v>110</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H111" s="11"/>
       <c r="I111" s="17"/>
@@ -8542,22 +8566,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -8585,16 +8609,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="63"/>
@@ -8623,16 +8647,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="56"/>
       <c r="G3" s="63"/>
@@ -8661,16 +8685,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="63"/>
@@ -8699,16 +8723,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="68"/>
       <c r="G5" s="69"/>
@@ -8737,16 +8761,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="69"/>
@@ -8775,16 +8799,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="69"/>
@@ -8813,16 +8837,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="68"/>
       <c r="G8" s="69"/>
@@ -8851,16 +8875,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="63"/>
@@ -8889,16 +8913,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
@@ -8927,16 +8951,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="63"/>
@@ -8965,16 +8989,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
